--- a/similarities/split_global/harmonic_similarity_timestamps_389.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_389.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:52.019070', '0:00:55.176984')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:18.448000', '0:03:25.638000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-41#t=52.01907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=198.448']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533')]</t>
+          <t>('0:00:00.860000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000')]</t>
+          <t>('0:00:10.820000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'E:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Eb/3', 'F:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.715464', '0:00:12.604807')]</t>
+          <t>('0:04:51.440000', '0:04:53.300000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.996000', '0:00:24.398000')]</t>
+          <t>('0:01:43.710000', '0:01:49.060000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=8.715464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=291.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=103.71</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:30.920000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=23.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:07.605000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_242</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000'), ('0:00:20.730000', '0:00:24.830000')]</t>
+          <t>('0:00:11.260000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:07.940000'), ('0:01:13.300000', '0:01:20.180000')]</t>
+          <t>('0:00:46.272131', '0:00:52.170000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=46.272131</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['E', 'A', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'D', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:21.245000')]</t>
+          <t>('0:00:02.612267', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:40.490000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:09.740000'), ('0:00:00.780000', '0:00:07.500000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:19.540000'), ('0:00:07.220000', '0:00:16.840000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=7.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:43.380000', '0:01:57.340000'), ('0:01:53.920000', '0:02:08.800000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=113.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj7']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj7']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Ab/7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:46.710000', '0:01:52.340000')]</t>
+          <t>('0:03:36.280000', '0:03:44.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:51.170000', '0:00:54.730000')]</t>
+          <t>('0:00:54.072000', '0:00:59.053000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=106.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=216.28</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:22.400000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
